--- a/output/StructureDefinition-med-activity.xlsx
+++ b/output/StructureDefinition-med-activity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="525">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T15:37:55+02:00</t>
+    <t>2022-10-26T12:16:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>Act[classCode=ACT; moodCode=DEFN]</t>
+  </si>
+  <si>
+    <t>clinical.general</t>
   </si>
   <si>
     <t>Medication</t>
@@ -335,7 +338,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>IETF language tag</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -393,6 +396,10 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
+</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -433,7 +440,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -449,8 +456,8 @@
   </si>
   <si>
     <t>Can be a urn:uuid: or a urn:oid: but real http: addresses are preferred.  Multiple instances may share the same URL if they have a distinct version.
-The determination of when to create a new version of a resource (same url, new version) vs. defining a new artifact is up to the author.  Considerations for making this decision are found in [Technical and Business Versions](http://hl7.org/fhir/R4/resource.html#versions). 
-In some cases, the resource can no longer be found at the stated url, but the url itself cannot change. Implementations can use the [meta.source](http://hl7.org/fhir/R4/resource.html#meta) element to indicate where the current master source of the resource can be found.</t>
+The determination of when to create a new version of a resource (same url, new version) vs. defining a new artifact is up to the author.  Considerations for making this decision are found in [Technical and Business Versions](http://hl7.org/fhir/2021Mar/resource.html#versions). 
+In some cases, the resource can no longer be found at the stated url, but the url itself cannot change. Implementations can use the [meta.source](http://hl7.org/fhir/2021Mar/resource.html#meta) element to indicate where the current master source of the resource can be found.</t>
   </si>
   <si>
     <t>Allows the activity definition to be referenced by a single globally unique identifier.</t>
@@ -533,7 +540,7 @@
     <t>Support human navigation and code generation.</t>
   </si>
   <si>
-    <t xml:space="preserve">inv-0
+    <t xml:space="preserve">cnl-0
 </t>
   </si>
   <si>
@@ -582,7 +589,7 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.3.0</t>
   </si>
   <si>
     <t>Definition.status {different ValueSet}</t>
@@ -620,13 +627,16 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(Group)</t>
+Reference(Group)canonical</t>
   </si>
   <si>
     <t>Type of individual the activity definition is intended for</t>
   </si>
   <si>
-    <t>A code or group definition that describes the intended subject of the activity being defined.</t>
+    <t>A code, group definition, or canonical reference that describes  or identifies the intended subject of the activity being defined.  Canonical references are allowed to support the definition of protocols for drug and substance quality specifications, and is allowed to reference a MedicinalProductDefinition, SubstanceDefinition, AdministrableProductDefinition, ManufacturedItemDefinition, or PackagedProductDefinition resource.</t>
+  </si>
+  <si>
+    <t>Note that the choice of canonical for the subject element was introduced in R4B to support pharmaceutical quality use cases. To ensure as much backwards-compatibility as possible, it is recommended to only use the new canonical type with these use cases.</t>
   </si>
   <si>
     <t>Patient</t>
@@ -642,6 +652,9 @@
   </si>
   <si>
     <t>Definition.subject</t>
+  </si>
+  <si>
+    <t>N/A (to add?) { only applies for subject Patient? }</t>
   </si>
   <si>
     <t>ActivityDefinition.date</t>
@@ -944,6 +957,9 @@
     <t>An individual or organization primarily responsible for internal coherence of the content.</t>
   </si>
   <si>
+    <t>.participation[typeCode=AUT] { not a great match, but there does not appear to be an editor concept in V3 participation }</t>
+  </si>
+  <si>
     <t>ActivityDefinition.reviewer</t>
   </si>
   <si>
@@ -1021,7 +1037,7 @@
     <t>The kind of activity the definition is describing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/request-resource-types|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/request-resource-types|4.3.0</t>
   </si>
   <si>
     <t>.classCode</t>
@@ -1043,6 +1059,9 @@
     <t>Allows profiles to be used to describe the types of activities that can be performed within a workflow, protocol, or order set.</t>
   </si>
   <si>
+    <t>.templateId</t>
+  </si>
+  <si>
     <t>ActivityDefinition.code</t>
   </si>
   <si>
@@ -1267,7 +1286,10 @@
     <t>Codes indicating the degree of authority/intentionality associated with a request.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/request-intent|4.3.0</t>
+  </si>
+  <si>
+    <t>.moodCode { of the realized Activity }</t>
   </si>
   <si>
     <t>ActivityDefinition.priority</t>
@@ -1282,7 +1304,10 @@
     <t>Identifies the level of importance to be assigned to actioning the request.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.3.0</t>
+  </si>
+  <si>
+    <t>.priority { of the realized activity }</t>
   </si>
   <si>
     <t>ActivityDefinition.doNotPerform</t>
@@ -1295,6 +1320,9 @@
   </si>
   <si>
     <t>This element is not intended to be used to communicate a decision support response to cancel an order in progress. That should be done with the "remove" type of a PlanDefinition or RequestGroup.</t>
+  </si>
+  <si>
+    <t>.negationInd { of the realized activity }</t>
   </si>
   <si>
     <t>ActivityDefinition.timing[x]</t>
@@ -1355,6 +1383,10 @@
     <t>Indicates who should participate in performing the action described.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
+  </si>
+  <si>
     <t>.participation[typeCode=PFM]</t>
   </si>
   <si>
@@ -1393,7 +1425,7 @@
     <t>The type of participant in the activity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-participant-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/action-participant-type|4.3.0</t>
   </si>
   <si>
     <t>.role.classCode</t>
@@ -1411,7 +1443,7 @@
     <t>Defines roles played by participants for the action.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-participant-role</t>
+    <t>http://terminology.hl7.org/ValueSet/action-participant-role</t>
   </si>
   <si>
     <t>.role.code</t>
@@ -1420,7 +1452,7 @@
     <t>ActivityDefinition.product[x]</t>
   </si>
   <si>
-    <t>Reference(Medication|Substance)
+    <t>Reference(Medication|Substance|Ingredient)
 CodeableConcept</t>
   </si>
   <si>
@@ -1586,10 +1618,10 @@
     <t>The path to the element to be set dynamically</t>
   </si>
   <si>
-    <t>The path to the element to be customized. This is the path on the resource that will hold the result of the calculation defined by the expression. The specified path SHALL be a FHIRPath resolveable on the specified target type of the ActivityDefinition, and SHALL consist only of identifiers, constant indexers, and a restricted subset of functions. The path is allowed to contain qualifiers (.) to traverse sub-elements, as well as indexers ([x]) to traverse multiple-cardinality sub-elements (see the [Simple FHIRPath Profile](http://hl7.org/fhir/R4/fhirpath.html#simple) for full details).</t>
-  </si>
-  <si>
-    <t>The path attribute contains a [Simple FHIRPath Subset](http://hl7.org/fhir/R4/fhirpath.html#simple) that allows path traversal, but not calculation.</t>
+    <t>The path to the element to be customized. This is the path on the resource that will hold the result of the calculation defined by the expression. The specified path SHALL be a FHIRPath resolveable on the specified target type of the ActivityDefinition, and SHALL consist only of identifiers, constant indexers, and a restricted subset of functions. The path is allowed to contain qualifiers (.) to traverse sub-elements, as well as indexers ([x]) to traverse multiple-cardinality sub-elements (see the [Simple FHIRPath Profile](http://hl7.org/fhir/2021Mar/fhirpath.html#simple) for full details).</t>
+  </si>
+  <si>
+    <t>The path attribute contains a [Simple FHIRPath Subset](http://hl7.org/fhir/2021Mar/fhirpath.html#simple) that allows path traversal, but not calculation.</t>
   </si>
   <si>
     <t>ActivityDefinition.dynamicValue.expression</t>
@@ -1925,7 +1957,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="90.05859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.30859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.60546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -2168,18 +2200,18 @@
         <v>77</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2190,7 +2222,7 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>72</v>
@@ -2199,19 +2231,19 @@
         <v>72</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2261,13 +2293,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -2293,7 +2325,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2304,7 +2336,7 @@
         <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>72</v>
@@ -2313,16 +2345,16 @@
         <v>72</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2373,19 +2405,19 @@
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>72</v>
@@ -2405,7 +2437,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2416,28 +2448,28 @@
         <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2487,19 +2519,19 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>72</v>
@@ -2519,7 +2551,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2530,7 +2562,7 @@
         <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
@@ -2542,16 +2574,16 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2577,13 +2609,13 @@
         <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>72</v>
@@ -2601,19 +2633,19 @@
         <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>72</v>
@@ -2633,18 +2665,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -2656,16 +2688,16 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2715,25 +2747,25 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>72</v>
@@ -2747,11 +2779,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2770,16 +2802,16 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2829,7 +2861,7 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
@@ -2841,13 +2873,13 @@
         <v>72</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>72</v>
@@ -2861,11 +2893,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2884,16 +2916,16 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2943,7 +2975,7 @@
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
@@ -2955,13 +2987,13 @@
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>72</v>
@@ -2975,11 +3007,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2992,25 +3024,25 @@
         <v>72</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>72</v>
@@ -3059,7 +3091,7 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
@@ -3071,13 +3103,13 @@
         <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>72</v>
@@ -3091,7 +3123,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3102,7 +3134,7 @@
         <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>72</v>
@@ -3111,22 +3143,22 @@
         <v>72</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>72</v>
@@ -3175,28 +3207,28 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>72</v>
@@ -3207,7 +3239,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3227,22 +3259,22 @@
         <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>72</v>
@@ -3291,7 +3323,7 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
@@ -3303,19 +3335,19 @@
         <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>72</v>
@@ -3323,7 +3355,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3334,7 +3366,7 @@
         <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>72</v>
@@ -3343,19 +3375,19 @@
         <v>72</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3405,28 +3437,28 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>72</v>
@@ -3437,7 +3469,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3448,7 +3480,7 @@
         <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>72</v>
@@ -3457,22 +3489,22 @@
         <v>72</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>72</v>
@@ -3521,25 +3553,25 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>72</v>
@@ -3553,7 +3585,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3564,7 +3596,7 @@
         <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>72</v>
@@ -3573,19 +3605,19 @@
         <v>72</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3635,25 +3667,25 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>72</v>
@@ -3667,7 +3699,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3678,7 +3710,7 @@
         <v>73</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>72</v>
@@ -3690,13 +3722,13 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3747,25 +3779,25 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>72</v>
@@ -3779,7 +3811,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3787,31 +3819,31 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3837,13 +3869,13 @@
         <v>72</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>72</v>
@@ -3861,28 +3893,28 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>72</v>
@@ -3893,7 +3925,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3904,7 +3936,7 @@
         <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>72</v>
@@ -3913,22 +3945,22 @@
         <v>72</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>72</v>
@@ -3977,28 +4009,28 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>72</v>
@@ -4009,7 +4041,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4020,7 +4052,7 @@
         <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>72</v>
@@ -4032,21 +4064,23 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q19" t="s" s="2">
         <v>72</v>
@@ -4067,13 +4101,13 @@
         <v>72</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>72</v>
@@ -4091,25 +4125,25 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>72</v>
@@ -4123,18 +4157,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>72</v>
@@ -4143,19 +4177,19 @@
         <v>72</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4205,28 +4239,28 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>72</v>
@@ -4237,7 +4271,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4248,7 +4282,7 @@
         <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>72</v>
@@ -4257,22 +4291,22 @@
         <v>72</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>72</v>
@@ -4321,28 +4355,28 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>72</v>
@@ -4353,7 +4387,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4373,19 +4407,19 @@
         <v>72</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4435,7 +4469,7 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
@@ -4447,13 +4481,13 @@
         <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>72</v>
@@ -4467,7 +4501,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4478,7 +4512,7 @@
         <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>72</v>
@@ -4487,19 +4521,19 @@
         <v>72</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4549,25 +4583,25 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>72</v>
@@ -4581,7 +4615,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4601,22 +4635,22 @@
         <v>72</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>72</v>
@@ -4665,7 +4699,7 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
@@ -4677,13 +4711,13 @@
         <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>72</v>
@@ -4697,7 +4731,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4717,19 +4751,19 @@
         <v>72</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4755,13 +4789,13 @@
         <v>72</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>72</v>
@@ -4779,7 +4813,7 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
@@ -4791,13 +4825,13 @@
         <v>72</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>72</v>
@@ -4811,7 +4845,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4822,7 +4856,7 @@
         <v>73</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>72</v>
@@ -4834,16 +4868,16 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4893,31 +4927,31 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>72</v>
@@ -4925,7 +4959,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4936,7 +4970,7 @@
         <v>73</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>72</v>
@@ -4948,13 +4982,13 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5005,25 +5039,25 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>72</v>
@@ -5037,18 +5071,18 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>72</v>
@@ -5060,17 +5094,17 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>72</v>
@@ -5119,31 +5153,31 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>72</v>
@@ -5151,7 +5185,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5162,7 +5196,7 @@
         <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>72</v>
@@ -5174,16 +5208,16 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5233,31 +5267,31 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>72</v>
@@ -5265,7 +5299,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5276,7 +5310,7 @@
         <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>72</v>
@@ -5288,19 +5322,19 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>72</v>
@@ -5349,31 +5383,31 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>72</v>
@@ -5381,7 +5415,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5392,7 +5426,7 @@
         <v>73</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>72</v>
@@ -5401,22 +5435,22 @@
         <v>72</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>72</v>
@@ -5465,31 +5499,31 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>72</v>
@@ -5497,7 +5531,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5520,17 +5554,17 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>72</v>
@@ -5555,31 +5589,31 @@
         <v>72</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
@@ -5591,13 +5625,13 @@
         <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>72</v>
@@ -5611,7 +5645,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5634,13 +5668,13 @@
         <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5691,7 +5725,7 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
@@ -5703,13 +5737,13 @@
         <v>72</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>72</v>
@@ -5723,7 +5757,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5746,13 +5780,13 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5803,7 +5837,7 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>
@@ -5815,13 +5849,13 @@
         <v>72</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>72</v>
+        <v>304</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>72</v>
@@ -5835,7 +5869,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5858,13 +5892,13 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5915,7 +5949,7 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
@@ -5927,13 +5961,13 @@
         <v>72</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>72</v>
@@ -5947,7 +5981,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5970,13 +6004,13 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6027,7 +6061,7 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>73</v>
@@ -6039,13 +6073,13 @@
         <v>72</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>72</v>
@@ -6059,7 +6093,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6082,19 +6116,19 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>72</v>
@@ -6143,7 +6177,7 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
@@ -6155,13 +6189,13 @@
         <v>72</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>72</v>
@@ -6175,7 +6209,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6198,13 +6232,13 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6255,7 +6289,7 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
@@ -6267,13 +6301,13 @@
         <v>72</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>72</v>
@@ -6287,7 +6321,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6298,7 +6332,7 @@
         <v>73</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>72</v>
@@ -6307,19 +6341,19 @@
         <v>72</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6330,7 +6364,7 @@
         <v>72</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>72</v>
@@ -6345,49 +6379,49 @@
         <v>72</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE39" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>72</v>
@@ -6401,7 +6435,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6412,7 +6446,7 @@
         <v>73</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>72</v>
@@ -6424,17 +6458,17 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>72</v>
@@ -6483,25 +6517,25 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>72</v>
+        <v>337</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>72</v>
@@ -6515,7 +6549,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6526,7 +6560,7 @@
         <v>73</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>72</v>
@@ -6535,22 +6569,22 @@
         <v>72</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>72</v>
@@ -6575,49 +6609,49 @@
         <v>72</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>72</v>
@@ -6631,7 +6665,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6642,7 +6676,7 @@
         <v>73</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>72</v>
@@ -6654,13 +6688,13 @@
         <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6711,13 +6745,13 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>72</v>
@@ -6729,7 +6763,7 @@
         <v>72</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>72</v>
@@ -6743,11 +6777,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6766,16 +6800,16 @@
         <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6813,19 +6847,19 @@
         <v>72</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
@@ -6837,13 +6871,13 @@
         <v>72</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>72</v>
@@ -6857,7 +6891,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6877,22 +6911,22 @@
         <v>72</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>72</v>
@@ -6941,7 +6975,7 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
@@ -6953,13 +6987,13 @@
         <v>72</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>72</v>
@@ -6973,7 +7007,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6984,7 +7018,7 @@
         <v>73</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>72</v>
@@ -6996,13 +7030,13 @@
         <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7053,13 +7087,13 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>72</v>
@@ -7071,7 +7105,7 @@
         <v>72</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>72</v>
@@ -7085,11 +7119,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7108,16 +7142,16 @@
         <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7155,19 +7189,19 @@
         <v>72</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
@@ -7179,13 +7213,13 @@
         <v>72</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>72</v>
@@ -7199,7 +7233,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7210,7 +7244,7 @@
         <v>73</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>72</v>
@@ -7219,22 +7253,22 @@
         <v>72</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>72</v>
@@ -7283,25 +7317,25 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>72</v>
@@ -7315,7 +7349,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7326,7 +7360,7 @@
         <v>73</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>72</v>
@@ -7335,19 +7369,19 @@
         <v>72</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7397,25 +7431,25 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>72</v>
@@ -7429,7 +7463,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7440,7 +7474,7 @@
         <v>73</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>72</v>
@@ -7449,20 +7483,20 @@
         <v>72</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>72</v>
@@ -7511,25 +7545,25 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>72</v>
@@ -7538,12 +7572,12 @@
         <v>72</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7554,7 +7588,7 @@
         <v>73</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>72</v>
@@ -7563,20 +7597,20 @@
         <v>72</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>72</v>
@@ -7625,25 +7659,25 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>72</v>
@@ -7652,12 +7686,12 @@
         <v>72</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7668,7 +7702,7 @@
         <v>73</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>72</v>
@@ -7677,22 +7711,22 @@
         <v>72</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>72</v>
@@ -7741,25 +7775,25 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>72</v>
@@ -7773,7 +7807,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7784,7 +7818,7 @@
         <v>73</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>72</v>
@@ -7793,22 +7827,22 @@
         <v>72</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>72</v>
@@ -7857,25 +7891,25 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>72</v>
@@ -7889,7 +7923,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7900,7 +7934,7 @@
         <v>73</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>72</v>
@@ -7912,13 +7946,13 @@
         <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7945,13 +7979,13 @@
         <v>72</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>72</v>
@@ -7969,25 +8003,25 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>72</v>
+        <v>413</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>72</v>
@@ -8001,7 +8035,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8012,7 +8046,7 @@
         <v>73</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>72</v>
@@ -8024,13 +8058,13 @@
         <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8057,13 +8091,13 @@
         <v>72</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>72</v>
@@ -8081,25 +8115,25 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>72</v>
+        <v>419</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>72</v>
@@ -8113,7 +8147,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8124,28 +8158,28 @@
         <v>73</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8195,25 +8229,25 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>72</v>
+        <v>424</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>72</v>
@@ -8227,7 +8261,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8238,7 +8272,7 @@
         <v>73</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>72</v>
@@ -8250,17 +8284,17 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>72</v>
@@ -8309,25 +8343,25 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>72</v>
@@ -8341,18 +8375,18 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>72</v>
@@ -8364,19 +8398,19 @@
         <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>72</v>
@@ -8425,25 +8459,25 @@
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>72</v>
@@ -8457,7 +8491,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8480,13 +8514,13 @@
         <v>72</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8537,7 +8571,7 @@
         <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>73</v>
@@ -8549,13 +8583,13 @@
         <v>72</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>92</v>
+        <v>443</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>72</v>
@@ -8569,7 +8603,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8580,7 +8614,7 @@
         <v>73</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>72</v>
@@ -8592,13 +8626,13 @@
         <v>72</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8649,13 +8683,13 @@
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>72</v>
@@ -8667,7 +8701,7 @@
         <v>72</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>72</v>
@@ -8681,11 +8715,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8704,16 +8738,16 @@
         <v>72</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8763,7 +8797,7 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>73</v>
@@ -8775,13 +8809,13 @@
         <v>72</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>72</v>
@@ -8795,11 +8829,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8812,25 +8846,25 @@
         <v>72</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>72</v>
@@ -8879,7 +8913,7 @@
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>73</v>
@@ -8891,13 +8925,13 @@
         <v>72</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>72</v>
@@ -8911,7 +8945,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8919,10 +8953,10 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>72</v>
@@ -8934,13 +8968,13 @@
         <v>72</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8967,13 +9001,13 @@
         <v>72</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>72</v>
@@ -8991,25 +9025,25 @@
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>72</v>
@@ -9023,7 +9057,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9034,7 +9068,7 @@
         <v>73</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>72</v>
@@ -9046,13 +9080,13 @@
         <v>72</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9079,13 +9113,13 @@
         <v>72</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>72</v>
@@ -9103,25 +9137,25 @@
         <v>72</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>72</v>
@@ -9135,7 +9169,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9146,7 +9180,7 @@
         <v>73</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>72</v>
@@ -9158,13 +9192,13 @@
         <v>72</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9191,13 +9225,13 @@
         <v>72</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>72</v>
@@ -9215,25 +9249,25 @@
         <v>72</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>72</v>
@@ -9247,18 +9281,18 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>72</v>
@@ -9270,13 +9304,13 @@
         <v>72</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9327,25 +9361,25 @@
         <v>72</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>72</v>
@@ -9359,7 +9393,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9382,16 +9416,16 @@
         <v>72</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9441,7 +9475,7 @@
         <v>72</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>73</v>
@@ -9453,13 +9487,13 @@
         <v>72</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>72</v>
@@ -9473,7 +9507,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9496,19 +9530,19 @@
         <v>72</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>72</v>
@@ -9533,13 +9567,13 @@
         <v>72</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>72</v>
@@ -9557,7 +9591,7 @@
         <v>72</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>73</v>
@@ -9569,13 +9603,13 @@
         <v>72</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>72</v>
@@ -9589,7 +9623,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9612,17 +9646,17 @@
         <v>72</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>72</v>
@@ -9671,7 +9705,7 @@
         <v>72</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>73</v>
@@ -9683,13 +9717,13 @@
         <v>72</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>72</v>
@@ -9703,7 +9737,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9726,17 +9760,17 @@
         <v>72</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>72</v>
@@ -9785,7 +9819,7 @@
         <v>72</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>73</v>
@@ -9797,13 +9831,13 @@
         <v>72</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>72</v>
@@ -9817,7 +9851,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9840,13 +9874,13 @@
         <v>72</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9897,7 +9931,7 @@
         <v>72</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>73</v>
@@ -9909,13 +9943,13 @@
         <v>72</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>72</v>
@@ -9929,7 +9963,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9940,7 +9974,7 @@
         <v>73</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>72</v>
@@ -9952,16 +9986,16 @@
         <v>72</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10011,25 +10045,25 @@
         <v>72</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>72</v>
@@ -10043,7 +10077,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10066,16 +10100,16 @@
         <v>72</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10125,7 +10159,7 @@
         <v>72</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>73</v>
@@ -10137,13 +10171,13 @@
         <v>72</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>92</v>
+        <v>443</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>72</v>
@@ -10157,7 +10191,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10168,7 +10202,7 @@
         <v>73</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>72</v>
@@ -10180,13 +10214,13 @@
         <v>72</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10237,13 +10271,13 @@
         <v>72</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>72</v>
@@ -10255,7 +10289,7 @@
         <v>72</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>72</v>
@@ -10269,11 +10303,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10292,16 +10326,16 @@
         <v>72</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10351,7 +10385,7 @@
         <v>72</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>73</v>
@@ -10363,13 +10397,13 @@
         <v>72</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>72</v>
@@ -10383,11 +10417,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10400,25 +10434,25 @@
         <v>72</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>72</v>
@@ -10467,7 +10501,7 @@
         <v>72</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>73</v>
@@ -10479,13 +10513,13 @@
         <v>72</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>72</v>
@@ -10499,7 +10533,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10507,10 +10541,10 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>72</v>
@@ -10522,16 +10556,16 @@
         <v>72</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10581,25 +10615,25 @@
         <v>72</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>72</v>
@@ -10613,7 +10647,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10621,10 +10655,10 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>72</v>
@@ -10636,16 +10670,16 @@
         <v>72</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10695,25 +10729,25 @@
         <v>72</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>72</v>
